--- a/excel-models/Indus Tower Model.xlsx
+++ b/excel-models/Indus Tower Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\investing\Analysis\Indus Towers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852EE6AA-594F-40C8-92FB-D6872315EA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D632054-96C2-422C-9E37-1BE219A8CE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="192">
   <si>
     <t>Indus Towers Ltd</t>
   </si>
@@ -690,6 +690,36 @@
   <si>
     <t>Business Cashflow Value</t>
   </si>
+  <si>
+    <t>In Millions</t>
+  </si>
+  <si>
+    <t>Terminal Value:</t>
+  </si>
+  <si>
+    <t>(Last year Cash Flow * (1+g))/(r-g)</t>
+  </si>
+  <si>
+    <t>If compared to the Current Share Price</t>
+  </si>
+  <si>
+    <t>Intrinsic Value</t>
+  </si>
+  <si>
+    <t>Discount Amount (Discount rate 10%)</t>
+  </si>
+  <si>
+    <t>Current Share Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Margin of Safety </t>
+  </si>
+  <si>
+    <t>Cash Flow with Growth</t>
+  </si>
+  <si>
+    <t>CF/Discount Rate</t>
+  </si>
 </sst>
 </file>
 
@@ -697,7 +727,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -965,7 +995,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1061,6 +1091,33 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1105,16 +1162,125 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1133,6 +1299,7 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1151,180 +1318,47 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1609,48 +1643,48 @@
   <dimension ref="B2:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.8"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="15.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.8">
-      <c r="B2" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71"/>
+      <c r="B2" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.8">
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74"/>
-      <c r="I3" s="75" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="85"/>
+      <c r="I3" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="77"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="88"/>
     </row>
     <row r="4" spans="2:15" ht="19.2" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="I4" s="78"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="80"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="91"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.8">
       <c r="B5" s="64" t="s">
@@ -1659,13 +1693,13 @@
       <c r="C5" s="64">
         <v>384</v>
       </c>
-      <c r="I5" s="81"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="83"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="94"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.8">
       <c r="B6" s="64" t="s">
@@ -1710,12 +1744,12 @@
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.8">
-      <c r="B11" s="158" t="s">
+      <c r="B11" s="78" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="159">
-        <f>+'Birds Equation'!F58</f>
-        <v>0.82423881828809631</v>
+      <c r="C11" s="79">
+        <f>+'Birds Equation'!F57</f>
+        <v>-0.65580597962476062</v>
       </c>
     </row>
   </sheetData>
@@ -1731,37 +1765,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68644154-4019-4877-B389-A133296568CD}">
   <dimension ref="B1:AG70"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D71" sqref="D71"/>
+      <selection pane="topRight" activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="27.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.109375" customWidth="1"/>
-    <col min="4" max="5" width="11.44140625" style="2" customWidth="1"/>
-    <col min="6" max="7" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.88671875" style="2" customWidth="1"/>
-    <col min="10" max="11" width="10.44140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" style="2" customWidth="1"/>
+    <col min="10" max="13" width="11.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.88671875" style="2" customWidth="1"/>
-    <col min="15" max="18" width="10.44140625" style="2" customWidth="1"/>
+    <col min="15" max="18" width="11.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.88671875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="10.44140625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="11.109375" style="2" customWidth="1"/>
-    <col min="22" max="23" width="10.44140625" style="2" customWidth="1"/>
+    <col min="20" max="23" width="11.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="8.88671875" style="2" customWidth="1"/>
-    <col min="25" max="28" width="10.44140625" style="2" customWidth="1"/>
+    <col min="25" max="28" width="11.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="8.88671875" style="2" customWidth="1"/>
-    <col min="30" max="33" width="10.44140625" style="2" customWidth="1"/>
+    <col min="30" max="33" width="11.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="34" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B1" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="2:33" x14ac:dyDescent="0.3">
@@ -4853,14 +4884,14 @@
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="F32" sqref="F32"/>
+      <selection pane="topRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="2"/>
-    <col min="3" max="3" width="25.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
@@ -5742,17 +5773,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72DA43E1-C60E-4521-846C-14C954FD2BB6}">
   <dimension ref="B2:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="42.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="11.77734375" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="45.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="2"/>
+    <col min="9" max="9" width="17.21875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
@@ -6389,29 +6424,29 @@
       <c r="B40" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="C40" s="86"/>
-      <c r="D40" s="87"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="88"/>
+      <c r="C40" s="95"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="97"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="C42" s="150">
+      <c r="C42" s="77">
         <f>+(C39-D39)/D39</f>
         <v>-0.32202522927649402</v>
       </c>
-      <c r="D42" s="150">
+      <c r="D42" s="77">
         <f>+(D39-E39)/E39</f>
         <v>1.0377586295856767</v>
       </c>
-      <c r="E42" s="150">
+      <c r="E42" s="77">
         <f>+(E39-F39)/F39</f>
         <v>-0.1463468348631935</v>
       </c>
-      <c r="F42" s="150">
+      <c r="F42" s="77">
         <f>+(F39-G39)/G39</f>
         <v>0.84912852256067761</v>
       </c>
@@ -6420,7 +6455,7 @@
       <c r="B43" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="150">
+      <c r="C43" s="77">
         <f>AVERAGE(C42:F42)</f>
         <v>0.35462877200166665</v>
       </c>
@@ -6438,52 +6473,58 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6231D1E-4833-4874-9738-ADA3692F0E97}">
-  <dimension ref="B2:Q58"/>
+  <dimension ref="B2:Q63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57:E57"/>
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.88671875" style="2"/>
     <col min="6" max="6" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16" width="8.88671875" style="2"/>
+    <col min="7" max="9" width="8.88671875" style="2"/>
+    <col min="10" max="10" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.77734375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="2"/>
     <col min="17" max="17" width="12.88671875" style="2" customWidth="1"/>
     <col min="18" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="139" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="91"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="141"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="92"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="94"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="144"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="146" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="97"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -6493,15 +6534,15 @@
       <c r="Q5" s="4"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="98"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="100"/>
+      <c r="B6" s="149"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -6514,964 +6555,1239 @@
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="101" t="s">
+      <c r="C8" s="160" t="s">
         <v>154</v>
       </c>
-      <c r="D8" s="102" t="s">
+      <c r="D8" s="161" t="s">
         <v>155</v>
       </c>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="162" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="163" t="s">
         <v>154</v>
       </c>
-      <c r="D9" s="105" t="s">
+      <c r="D9" s="164" t="s">
         <v>157</v>
       </c>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="165"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="103"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="164"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="165"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="106" t="s">
+      <c r="C11" s="166" t="s">
         <v>154</v>
       </c>
-      <c r="D11" s="107" t="s">
+      <c r="D11" s="167" t="s">
         <v>159</v>
       </c>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-    </row>
-    <row r="14" spans="2:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="109" t="s">
+      <c r="E11" s="167"/>
+      <c r="F11" s="167"/>
+      <c r="G11" s="167"/>
+      <c r="H11" s="167"/>
+      <c r="I11" s="167"/>
+      <c r="J11" s="168"/>
+    </row>
+    <row r="13" spans="2:17" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="130" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="115"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="132"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="133"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="135"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="111"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="112"/>
-      <c r="J15" s="116"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="138"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="113"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="117"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="108"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="108"/>
-      <c r="J17" s="108"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="119" t="s">
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="C18" s="119" t="s">
+      <c r="C17" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="D18" s="122" t="s">
+      <c r="D17" s="126" t="s">
         <v>162</v>
       </c>
-      <c r="E18" s="123"/>
-      <c r="F18" s="122" t="s">
+      <c r="E17" s="127"/>
+      <c r="F17" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="G18" s="123"/>
-      <c r="H18" s="122" t="s">
+      <c r="G17" s="127"/>
+      <c r="H17" s="126" t="s">
         <v>165</v>
       </c>
-      <c r="I18" s="123"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="120">
+      <c r="I17" s="127"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="72">
         <v>1</v>
       </c>
-      <c r="C19" s="125">
-        <v>103526</v>
-      </c>
-      <c r="D19" s="126">
-        <f>+C19*0.065</f>
-        <v>6729.1900000000005</v>
-      </c>
-      <c r="E19" s="127"/>
-      <c r="F19" s="126">
-        <f>(+C19/1.05)-C19</f>
-        <v>-4929.8095238095266</v>
-      </c>
-      <c r="G19" s="127"/>
-      <c r="H19" s="126">
-        <f>+C19+D19+F19</f>
-        <v>105325.38047619048</v>
-      </c>
-      <c r="I19" s="127"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="120">
+      <c r="C18" s="74">
+        <v>1035260</v>
+      </c>
+      <c r="D18" s="113">
+        <f>+C18*0.065</f>
+        <v>67291.900000000009</v>
+      </c>
+      <c r="E18" s="114"/>
+      <c r="F18" s="113">
+        <f>+(C18+D18)/((1+0.1)^N51)</f>
+        <v>1002319.9090909089</v>
+      </c>
+      <c r="G18" s="114"/>
+      <c r="H18" s="113">
+        <f>+C18+D18+F18</f>
+        <v>2104871.8090909086</v>
+      </c>
+      <c r="I18" s="114"/>
+      <c r="J18" s="2">
+        <f>+C18*10000000</f>
+        <v>10352600000000</v>
+      </c>
+      <c r="K18" s="2">
+        <f>+J18/1000000</f>
+        <v>10352600</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="72">
         <v>2</v>
       </c>
-      <c r="C20" s="125">
-        <f>+H19</f>
-        <v>105325.38047619048</v>
-      </c>
-      <c r="D20" s="126">
-        <f t="shared" ref="D20:D27" si="0">+C20*0.065</f>
-        <v>6846.1497309523811</v>
-      </c>
-      <c r="E20" s="127"/>
-      <c r="F20" s="126">
-        <f t="shared" ref="F20:F28" si="1">(+C20/1.05)-C20</f>
-        <v>-5015.4943083900289</v>
-      </c>
-      <c r="G20" s="127"/>
-      <c r="H20" s="126">
-        <f t="shared" ref="H20:H28" si="2">+C20+D20+F20</f>
-        <v>107156.03589875283</v>
-      </c>
-      <c r="I20" s="127"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="120">
+      <c r="C19" s="74">
+        <f>+C18+D18</f>
+        <v>1102551.8999999999</v>
+      </c>
+      <c r="D19" s="113">
+        <f t="shared" ref="D19:D26" si="0">+C19*0.065</f>
+        <v>71665.873500000002</v>
+      </c>
+      <c r="E19" s="114"/>
+      <c r="F19" s="113">
+        <f>+(C19+D19)/((1+0.1)^N52)</f>
+        <v>970427.91198347078</v>
+      </c>
+      <c r="G19" s="114"/>
+      <c r="H19" s="113">
+        <f t="shared" ref="H19:H27" si="1">+C19+D19+F19</f>
+        <v>2144645.6854834706</v>
+      </c>
+      <c r="I19" s="114"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="72">
         <v>3</v>
       </c>
-      <c r="C21" s="125">
-        <f t="shared" ref="C21:C28" si="3">+H20</f>
-        <v>107156.03589875283</v>
-      </c>
-      <c r="D21" s="126">
+      <c r="C20" s="74">
+        <f>+C19+D19</f>
+        <v>1174217.7734999999</v>
+      </c>
+      <c r="D20" s="113">
         <f t="shared" si="0"/>
-        <v>6965.142333418934</v>
-      </c>
-      <c r="E21" s="127"/>
-      <c r="F21" s="126">
+        <v>76324.155277500002</v>
+      </c>
+      <c r="E20" s="114"/>
+      <c r="F20" s="113">
+        <f>+(C20+D20)/((1+0.1)^N53)</f>
+        <v>939550.66023854201</v>
+      </c>
+      <c r="G20" s="114"/>
+      <c r="H20" s="113">
         <f t="shared" si="1"/>
-        <v>-5102.6683761310851</v>
-      </c>
-      <c r="G21" s="127"/>
-      <c r="H21" s="126">
-        <f t="shared" si="2"/>
-        <v>109018.50985604068</v>
-      </c>
-      <c r="I21" s="127"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="120">
+        <v>2190092.5890160417</v>
+      </c>
+      <c r="I20" s="114"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="72">
         <v>4</v>
       </c>
-      <c r="C22" s="125">
-        <f t="shared" si="3"/>
-        <v>109018.50985604068</v>
-      </c>
-      <c r="D22" s="126">
+      <c r="C21" s="74">
+        <f>+C20+D20</f>
+        <v>1250541.9287774998</v>
+      </c>
+      <c r="D21" s="113">
         <f t="shared" si="0"/>
-        <v>7086.203140642644</v>
-      </c>
-      <c r="E22" s="127"/>
-      <c r="F22" s="126">
+        <v>81285.22537053749</v>
+      </c>
+      <c r="E21" s="114"/>
+      <c r="F21" s="113">
+        <f>+(C21+D21)/((1+0.1)^N54)</f>
+        <v>909655.86650367931</v>
+      </c>
+      <c r="G21" s="114"/>
+      <c r="H21" s="113">
         <f t="shared" si="1"/>
-        <v>-5191.3576121924125</v>
-      </c>
-      <c r="G22" s="127"/>
-      <c r="H22" s="126">
-        <f t="shared" si="2"/>
-        <v>110913.3553844909</v>
-      </c>
-      <c r="I22" s="127"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="120">
+        <v>2241483.0206517167</v>
+      </c>
+      <c r="I21" s="114"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="72">
         <v>5</v>
       </c>
-      <c r="C23" s="125">
-        <f t="shared" si="3"/>
-        <v>110913.3553844909</v>
-      </c>
-      <c r="D23" s="126">
+      <c r="C22" s="74">
+        <f>+C21+D21</f>
+        <v>1331827.1541480373</v>
+      </c>
+      <c r="D22" s="113">
         <f t="shared" si="0"/>
-        <v>7209.3680999919088</v>
-      </c>
-      <c r="E23" s="127"/>
-      <c r="F23" s="126">
+        <v>86568.765019622428</v>
+      </c>
+      <c r="E22" s="114"/>
+      <c r="F22" s="113">
+        <f>+(C22+D22)/((1+0.1)^N55)</f>
+        <v>880712.27075128944</v>
+      </c>
+      <c r="G22" s="114"/>
+      <c r="H22" s="113">
         <f t="shared" si="1"/>
-        <v>-5281.5883516424219</v>
-      </c>
-      <c r="G23" s="127"/>
-      <c r="H23" s="126">
-        <f t="shared" si="2"/>
-        <v>112841.1351328404</v>
-      </c>
-      <c r="I23" s="127"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="120">
+        <v>2299108.1899189493</v>
+      </c>
+      <c r="I22" s="114"/>
+      <c r="K22" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="M22" s="16"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="72">
         <v>6</v>
       </c>
-      <c r="C24" s="125">
-        <f t="shared" si="3"/>
-        <v>112841.1351328404</v>
-      </c>
-      <c r="D24" s="126">
+      <c r="C23" s="74">
+        <f>+C22+D22</f>
+        <v>1418395.9191676597</v>
+      </c>
+      <c r="D23" s="113">
         <f t="shared" si="0"/>
-        <v>7334.6737836346265</v>
-      </c>
-      <c r="E24" s="127"/>
-      <c r="F24" s="126">
+        <v>92195.734745897891</v>
+      </c>
+      <c r="E23" s="114"/>
+      <c r="F23" s="113">
+        <f>+(C23+D23)/((1+0.1)^N56)</f>
+        <v>852689.60759102099</v>
+      </c>
+      <c r="G23" s="114"/>
+      <c r="H23" s="113">
         <f t="shared" si="1"/>
-        <v>-5373.387387278126</v>
-      </c>
-      <c r="G24" s="127"/>
-      <c r="H24" s="126">
-        <f t="shared" si="2"/>
-        <v>114802.4215291969</v>
-      </c>
-      <c r="I24" s="127"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="120">
+        <v>2363281.2615045784</v>
+      </c>
+      <c r="I23" s="114"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="17">
+        <f>+H27*(1+0)</f>
+        <v>2692561.3733394151</v>
+      </c>
+      <c r="M23" s="18">
+        <f>0.1-0</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="72">
         <v>7</v>
       </c>
-      <c r="C25" s="125">
-        <f t="shared" si="3"/>
-        <v>114802.4215291969</v>
-      </c>
-      <c r="D25" s="126">
+      <c r="C24" s="74">
+        <f>+C23+D23</f>
+        <v>1510591.6539135575</v>
+      </c>
+      <c r="D24" s="113">
         <f t="shared" si="0"/>
-        <v>7462.1573993977991</v>
-      </c>
-      <c r="E25" s="127"/>
-      <c r="F25" s="126">
+        <v>98188.457504381237</v>
+      </c>
+      <c r="E24" s="114"/>
+      <c r="F24" s="113">
+        <f>+(C24+D24)/((1+0.1)^N57)</f>
+        <v>825558.5746222157</v>
+      </c>
+      <c r="G24" s="114"/>
+      <c r="H24" s="113">
         <f t="shared" si="1"/>
-        <v>-5466.7819775808166</v>
-      </c>
-      <c r="G25" s="127"/>
-      <c r="H25" s="126">
-        <f t="shared" si="2"/>
-        <v>116797.79695101388</v>
-      </c>
-      <c r="I25" s="127"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="120">
+        <v>2434338.6860401547</v>
+      </c>
+      <c r="I24" s="114"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="32">
+        <f>+L23/M23</f>
+        <v>26925613.73339415</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="72">
         <v>8</v>
       </c>
-      <c r="C26" s="125">
-        <f t="shared" si="3"/>
-        <v>116797.79695101388</v>
-      </c>
-      <c r="D26" s="126">
+      <c r="C25" s="74">
+        <f>+C24+D24</f>
+        <v>1608780.1114179387</v>
+      </c>
+      <c r="D25" s="113">
         <f t="shared" si="0"/>
-        <v>7591.8568018159021</v>
-      </c>
-      <c r="E26" s="127"/>
-      <c r="F26" s="126">
+        <v>104570.70724216603</v>
+      </c>
+      <c r="E25" s="114"/>
+      <c r="F25" s="113">
+        <f>+(C25+D25)/((1+0.1)^N58)</f>
+        <v>799290.80179332697</v>
+      </c>
+      <c r="G25" s="114"/>
+      <c r="H25" s="113">
         <f t="shared" si="1"/>
-        <v>-5561.7998548101896</v>
-      </c>
-      <c r="G26" s="127"/>
-      <c r="H26" s="126">
-        <f t="shared" si="2"/>
-        <v>118827.85389801959</v>
-      </c>
-      <c r="I26" s="127"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="120">
+        <v>2512641.6204534317</v>
+      </c>
+      <c r="I25" s="114"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="72">
         <v>9</v>
       </c>
-      <c r="C27" s="125">
-        <f t="shared" si="3"/>
-        <v>118827.85389801959</v>
-      </c>
-      <c r="D27" s="126">
+      <c r="C26" s="74">
+        <f>+C25+D25</f>
+        <v>1713350.8186601046</v>
+      </c>
+      <c r="D26" s="113">
         <f t="shared" si="0"/>
-        <v>7723.8105033712736</v>
-      </c>
-      <c r="E27" s="127"/>
-      <c r="F27" s="126">
+        <v>111367.8032129068</v>
+      </c>
+      <c r="E26" s="114"/>
+      <c r="F26" s="113">
+        <f>+(C26+D26)/((1+0.1)^N59)</f>
+        <v>773858.82173626649</v>
+      </c>
+      <c r="G26" s="114"/>
+      <c r="H26" s="113">
         <f t="shared" si="1"/>
-        <v>-5658.4692332390259</v>
-      </c>
-      <c r="G27" s="127"/>
-      <c r="H27" s="126">
-        <f t="shared" si="2"/>
-        <v>120893.19516815184</v>
-      </c>
-      <c r="I27" s="127"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="121">
+        <v>2598577.4436092777</v>
+      </c>
+      <c r="I26" s="114"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="73">
         <v>10</v>
       </c>
-      <c r="C28" s="128">
-        <f t="shared" si="3"/>
-        <v>120893.19516815184</v>
-      </c>
-      <c r="D28" s="129">
-        <f>+C28*0.065</f>
-        <v>7858.0576859298699</v>
-      </c>
-      <c r="E28" s="130"/>
-      <c r="F28" s="129">
+      <c r="C27" s="74">
+        <f>+C26+D26</f>
+        <v>1824718.6218730113</v>
+      </c>
+      <c r="D27" s="108">
+        <f>+C27*0.065</f>
+        <v>118606.71042174574</v>
+      </c>
+      <c r="E27" s="109"/>
+      <c r="F27" s="113">
+        <f>+(C27+D27)/((1+0.1)^N60)</f>
+        <v>749236.04104465793</v>
+      </c>
+      <c r="G27" s="114"/>
+      <c r="H27" s="108">
         <f t="shared" si="1"/>
-        <v>-5756.8188175310497</v>
-      </c>
-      <c r="G28" s="130"/>
-      <c r="H28" s="129">
-        <f t="shared" si="2"/>
-        <v>122994.43403655067</v>
-      </c>
-      <c r="I28" s="130"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="142" t="s">
+        <v>2692561.3733394151</v>
+      </c>
+      <c r="I27" s="109"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="159" t="s">
         <v>167</v>
       </c>
-      <c r="C29" s="119">
-        <f>+H28</f>
-        <v>122994.43403655067</v>
-      </c>
-      <c r="D29" s="143">
-        <f>+C29*(1+0.065)</f>
-        <v>130989.07224892644</v>
-      </c>
-      <c r="E29" s="143"/>
-      <c r="F29" s="144">
-        <v>1.43E-2</v>
-      </c>
-      <c r="G29" s="143"/>
-      <c r="H29" s="143">
-        <f>+D29/F29</f>
-        <v>9160074.9824424088</v>
-      </c>
-      <c r="I29" s="143"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="140"/>
-      <c r="C30" s="141"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="145" t="s">
+      <c r="C28" s="10"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101">
+        <f>+M24</f>
+        <v>26925613.73339415</v>
+      </c>
+      <c r="I28" s="101"/>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="75"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="110" t="s">
         <v>168</v>
       </c>
-      <c r="G30" s="146"/>
-      <c r="H30" s="146">
-        <f>+H28+H29</f>
-        <v>9283069.4164789598</v>
-      </c>
-      <c r="I30" s="147"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="131" t="s">
+      <c r="G29" s="111"/>
+      <c r="H29" s="110">
+        <f>+SUM(H18:I27)+H28</f>
+        <v>50507215.412502095</v>
+      </c>
+      <c r="I29" s="112"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="115" t="s">
         <v>166</v>
       </c>
-      <c r="C32" s="132"/>
-      <c r="D32" s="132"/>
-      <c r="E32" s="132"/>
-      <c r="F32" s="132"/>
-      <c r="G32" s="132"/>
-      <c r="H32" s="132"/>
-      <c r="I32" s="133"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="134"/>
-      <c r="C33" s="135"/>
-      <c r="D33" s="135"/>
-      <c r="E33" s="135"/>
-      <c r="F33" s="135"/>
-      <c r="G33" s="135"/>
-      <c r="H33" s="135"/>
-      <c r="I33" s="136"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="137"/>
-      <c r="C34" s="138"/>
-      <c r="D34" s="138"/>
-      <c r="E34" s="138"/>
-      <c r="F34" s="138"/>
-      <c r="G34" s="138"/>
-      <c r="H34" s="138"/>
-      <c r="I34" s="139"/>
-    </row>
-    <row r="36" spans="2:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="119" t="s">
+      <c r="C31" s="116"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="116"/>
+      <c r="I31" s="117"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="118"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="119"/>
+      <c r="H32" s="119"/>
+      <c r="I32" s="120"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="121"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="122"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="123"/>
+    </row>
+    <row r="35" spans="2:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="C36" s="119" t="s">
+      <c r="C35" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="D36" s="148" t="s">
+      <c r="D35" s="124" t="s">
         <v>169</v>
       </c>
-      <c r="E36" s="149"/>
-      <c r="F36" s="122" t="s">
-        <v>170</v>
-      </c>
-      <c r="G36" s="123"/>
-      <c r="H36" s="148" t="s">
+      <c r="E35" s="125"/>
+      <c r="F35" s="124" t="s">
+        <v>187</v>
+      </c>
+      <c r="G35" s="125"/>
+      <c r="H35" s="124" t="s">
         <v>171</v>
       </c>
-      <c r="I36" s="149"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="120">
+      <c r="I35" s="125"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="72">
         <v>1</v>
       </c>
-      <c r="C37" s="125">
+      <c r="C36" s="74">
         <f>+'Cash Flow '!C39</f>
         <v>133879</v>
       </c>
-      <c r="D37" s="151">
+      <c r="D36" s="128">
+        <f>+C36*0.2</f>
+        <v>26775.800000000003</v>
+      </c>
+      <c r="E36" s="129"/>
+      <c r="F36" s="113">
+        <f>+(C36+D36)/((1+0.1)^N51)</f>
+        <v>146049.81818181815</v>
+      </c>
+      <c r="G36" s="114"/>
+      <c r="H36" s="113">
+        <f t="shared" ref="H36:H45" si="2">+C36+D36+F36</f>
+        <v>306704.61818181816</v>
+      </c>
+      <c r="I36" s="114"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="72">
+        <f>+B36+1</f>
+        <v>2</v>
+      </c>
+      <c r="C37" s="74">
+        <f>+C36+D36</f>
+        <v>160654.79999999999</v>
+      </c>
+      <c r="D37" s="113">
         <f>+C37*0.2</f>
-        <v>26775.800000000003</v>
-      </c>
-      <c r="E37" s="152"/>
-      <c r="F37" s="126">
-        <f>(C37/1.1)-C37</f>
-        <v>-12170.818181818191</v>
-      </c>
-      <c r="G37" s="127"/>
-      <c r="H37" s="126">
-        <f>+C37+D37+F37</f>
-        <v>148483.98181818181</v>
-      </c>
-      <c r="I37" s="127"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="120">
-        <f>+B37+1</f>
-        <v>2</v>
-      </c>
-      <c r="C38" s="125">
-        <f>+H37</f>
-        <v>148483.98181818181</v>
-      </c>
-      <c r="D38" s="126">
+        <v>32130.959999999999</v>
+      </c>
+      <c r="E37" s="114"/>
+      <c r="F37" s="113">
+        <f t="shared" ref="F37:F45" si="3">+(C37+D37)/((1+0.1)^N52)</f>
+        <v>159327.07438016526</v>
+      </c>
+      <c r="G37" s="114"/>
+      <c r="H37" s="113">
+        <f t="shared" si="2"/>
+        <v>352112.83438016521</v>
+      </c>
+      <c r="I37" s="114"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="72">
+        <f t="shared" ref="B38:B45" si="4">+B37+1</f>
+        <v>3</v>
+      </c>
+      <c r="C38" s="74">
+        <f>+C37+D37</f>
+        <v>192785.75999999998</v>
+      </c>
+      <c r="D38" s="113">
         <f>+C38*0.2</f>
-        <v>29696.796363636364</v>
-      </c>
-      <c r="E38" s="127"/>
-      <c r="F38" s="126">
-        <f>(C38/1.1)-C38</f>
-        <v>-13498.543801652908</v>
-      </c>
-      <c r="G38" s="127"/>
-      <c r="H38" s="126">
-        <f>+C38+D38+F38</f>
-        <v>164682.23438016526</v>
-      </c>
-      <c r="I38" s="127"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="120">
-        <f t="shared" ref="B39:B46" si="4">+B38+1</f>
-        <v>3</v>
-      </c>
-      <c r="C39" s="125">
-        <f>+H38</f>
-        <v>164682.23438016526</v>
-      </c>
-      <c r="D39" s="126">
-        <f>+C39*0.2</f>
-        <v>32936.446876033056</v>
-      </c>
-      <c r="E39" s="127"/>
-      <c r="F39" s="126">
-        <f>(C39/1.1)-C39</f>
-        <v>-14971.112216378679</v>
-      </c>
-      <c r="G39" s="127"/>
-      <c r="H39" s="126">
-        <f>+C39+D39+F39</f>
-        <v>182647.56903981965</v>
-      </c>
-      <c r="I39" s="127"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="120">
+        <v>38557.151999999995</v>
+      </c>
+      <c r="E38" s="114"/>
+      <c r="F38" s="113">
+        <f t="shared" si="3"/>
+        <v>173811.35386927114</v>
+      </c>
+      <c r="G38" s="114"/>
+      <c r="H38" s="113">
+        <f t="shared" si="2"/>
+        <v>405154.26586927113</v>
+      </c>
+      <c r="I38" s="114"/>
+      <c r="K38" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="L38" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="M38" s="16"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" s="72">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="C40" s="125">
-        <f>+H39</f>
-        <v>182647.56903981965</v>
-      </c>
-      <c r="D40" s="126">
-        <f>+C40*0.15</f>
-        <v>27397.135355972947</v>
-      </c>
-      <c r="E40" s="127"/>
-      <c r="F40" s="126">
-        <f>(C40/1.1)-C40</f>
-        <v>-16604.324458165444</v>
-      </c>
-      <c r="G40" s="127"/>
-      <c r="H40" s="126">
-        <f>+C40+D40+F40</f>
-        <v>193440.37993762715</v>
-      </c>
-      <c r="I40" s="127"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="120">
+      <c r="C39" s="74">
+        <f>+C38+D38</f>
+        <v>231342.91199999998</v>
+      </c>
+      <c r="D39" s="113">
+        <f>+C39*0.15</f>
+        <v>34701.436799999996</v>
+      </c>
+      <c r="E39" s="114"/>
+      <c r="F39" s="113">
+        <f t="shared" si="3"/>
+        <v>181711.86995423803</v>
+      </c>
+      <c r="G39" s="114"/>
+      <c r="H39" s="113">
+        <f t="shared" si="2"/>
+        <v>447756.21875423798</v>
+      </c>
+      <c r="I39" s="114"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="17">
+        <f>+H45*(1+0.2)</f>
+        <v>856489.03014932235</v>
+      </c>
+      <c r="M39" s="18">
+        <f>+(0.1-0.03)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" s="72">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C41" s="125">
-        <f>+H40</f>
-        <v>193440.37993762715</v>
-      </c>
-      <c r="D41" s="126">
-        <f>+C41*0.15</f>
-        <v>29016.056990644072</v>
-      </c>
-      <c r="E41" s="127"/>
-      <c r="F41" s="126">
-        <f>(C41/1.1)-C41</f>
-        <v>-17585.489085238834</v>
-      </c>
-      <c r="G41" s="127"/>
-      <c r="H41" s="126">
-        <f>+C41+D41+F41</f>
-        <v>204870.94784303239</v>
-      </c>
-      <c r="I41" s="127"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="120">
+      <c r="C40" s="74">
+        <f>+C39+D39</f>
+        <v>266044.34879999998</v>
+      </c>
+      <c r="D40" s="113">
+        <f>+C40*0.15</f>
+        <v>39906.652319999994</v>
+      </c>
+      <c r="E40" s="114"/>
+      <c r="F40" s="113">
+        <f t="shared" si="3"/>
+        <v>189971.50040670339</v>
+      </c>
+      <c r="G40" s="114"/>
+      <c r="H40" s="113">
+        <f t="shared" si="2"/>
+        <v>495922.50152670336</v>
+      </c>
+      <c r="I40" s="114"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="32">
+        <f>+L39/M39</f>
+        <v>12235557.573561747</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" s="72">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="C42" s="125">
-        <f>+H41</f>
-        <v>204870.94784303239</v>
-      </c>
-      <c r="D42" s="126">
-        <f>+C42*0.15</f>
-        <v>30730.642176454858</v>
-      </c>
-      <c r="E42" s="127"/>
-      <c r="F42" s="126">
-        <f>(C42/1.1)-C42</f>
-        <v>-18624.631622093875</v>
-      </c>
-      <c r="G42" s="127"/>
-      <c r="H42" s="126">
-        <f>+C42+D42+F42</f>
-        <v>216976.95839739338</v>
-      </c>
-      <c r="I42" s="127"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="120">
+      <c r="C41" s="74">
+        <f>+C40+D40</f>
+        <v>305951.00111999997</v>
+      </c>
+      <c r="D41" s="113">
+        <f>+C41*0.15</f>
+        <v>45892.650167999993</v>
+      </c>
+      <c r="E41" s="114"/>
+      <c r="F41" s="113">
+        <f t="shared" si="3"/>
+        <v>198606.56860700803</v>
+      </c>
+      <c r="G41" s="114"/>
+      <c r="H41" s="113">
+        <f t="shared" si="2"/>
+        <v>550450.21989500802</v>
+      </c>
+      <c r="I41" s="114"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" s="72">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C43" s="125">
-        <f>+H42</f>
-        <v>216976.95839739338</v>
-      </c>
-      <c r="D43" s="126">
-        <f>+C43*0.15</f>
-        <v>32546.543759609005</v>
-      </c>
-      <c r="E43" s="127"/>
-      <c r="F43" s="126">
-        <f>(C43/1.1)-C43</f>
-        <v>-19725.178036126686</v>
-      </c>
-      <c r="G43" s="127"/>
-      <c r="H43" s="126">
-        <f>+C43+D43+F43</f>
-        <v>229798.32412087571</v>
-      </c>
-      <c r="I43" s="127"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="120">
+      <c r="C42" s="74">
+        <f>+C41+D41</f>
+        <v>351843.65128799994</v>
+      </c>
+      <c r="D42" s="113">
+        <f>+C42*0.1</f>
+        <v>35184.365128799996</v>
+      </c>
+      <c r="E42" s="114"/>
+      <c r="F42" s="113">
+        <f t="shared" si="3"/>
+        <v>198606.568607008</v>
+      </c>
+      <c r="G42" s="114"/>
+      <c r="H42" s="113">
+        <f t="shared" si="2"/>
+        <v>585634.58502380794</v>
+      </c>
+      <c r="I42" s="114"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="72">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="C44" s="125">
-        <f>+H43</f>
-        <v>229798.32412087571</v>
-      </c>
-      <c r="D44" s="126">
-        <f>+C44*0.15</f>
-        <v>34469.748618131358</v>
-      </c>
-      <c r="E44" s="127"/>
-      <c r="F44" s="126">
-        <f>(C44/1.1)-C44</f>
-        <v>-20890.756738261436</v>
-      </c>
-      <c r="G44" s="127"/>
-      <c r="H44" s="126">
-        <f>+C44+D44+F44</f>
-        <v>243377.31600074563</v>
-      </c>
-      <c r="I44" s="127"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="120">
+      <c r="C43" s="74">
+        <f>+C42+D42</f>
+        <v>387028.01641679992</v>
+      </c>
+      <c r="D43" s="113">
+        <f>+C43*0.1</f>
+        <v>38702.801641679995</v>
+      </c>
+      <c r="E43" s="114"/>
+      <c r="F43" s="113">
+        <f t="shared" si="3"/>
+        <v>198606.56860700803</v>
+      </c>
+      <c r="G43" s="114"/>
+      <c r="H43" s="113">
+        <f t="shared" si="2"/>
+        <v>624337.38666548789</v>
+      </c>
+      <c r="I43" s="114"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" s="72">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="C45" s="125">
-        <f>+H44</f>
-        <v>243377.31600074563</v>
-      </c>
-      <c r="D45" s="126">
-        <f>+C45*0.1</f>
-        <v>24337.731600074563</v>
-      </c>
-      <c r="E45" s="127"/>
-      <c r="F45" s="126">
-        <f>(C45/1.1)-C45</f>
-        <v>-22125.210545522335</v>
-      </c>
-      <c r="G45" s="127"/>
-      <c r="H45" s="126">
-        <f>+C45+D45+F45</f>
-        <v>245589.83705529786</v>
-      </c>
-      <c r="I45" s="127"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="121">
+      <c r="C44" s="74">
+        <f>+C43+D43</f>
+        <v>425730.81805847993</v>
+      </c>
+      <c r="D44" s="113">
+        <f>+C44*0.1</f>
+        <v>42573.081805847993</v>
+      </c>
+      <c r="E44" s="114"/>
+      <c r="F44" s="113">
+        <f t="shared" si="3"/>
+        <v>198606.56860700803</v>
+      </c>
+      <c r="G44" s="114"/>
+      <c r="H44" s="113">
+        <f t="shared" si="2"/>
+        <v>666910.46847133595</v>
+      </c>
+      <c r="I44" s="114"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="73">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="C46" s="128">
-        <f>+H45</f>
-        <v>245589.83705529786</v>
-      </c>
-      <c r="D46" s="129">
-        <f>+C46*0.1</f>
-        <v>24558.983705529787</v>
-      </c>
-      <c r="E46" s="130"/>
-      <c r="F46" s="129">
-        <f>(C46/1.1)-C46</f>
-        <v>-22326.348823208915</v>
-      </c>
-      <c r="G46" s="130"/>
-      <c r="H46" s="129">
-        <f>+C46+D46+F46</f>
-        <v>247822.47193761871</v>
-      </c>
-      <c r="I46" s="130"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="60" t="s">
+      <c r="C45" s="74">
+        <f>+C44+D44</f>
+        <v>468303.89986432792</v>
+      </c>
+      <c r="D45" s="108">
+        <f>+C45*0.1</f>
+        <v>46830.389986432798</v>
+      </c>
+      <c r="E45" s="109"/>
+      <c r="F45" s="113">
+        <f t="shared" si="3"/>
+        <v>198606.568607008</v>
+      </c>
+      <c r="G45" s="114"/>
+      <c r="H45" s="108">
+        <f t="shared" si="2"/>
+        <v>713740.85845776869</v>
+      </c>
+      <c r="I45" s="109"/>
+      <c r="L45" s="2">
+        <f>133879*(1+0.2)</f>
+        <v>160654.79999999999</v>
+      </c>
+      <c r="M45" s="155">
+        <v>0.2</v>
+      </c>
+      <c r="N45" s="2">
+        <f>+L45*(1+M45)</f>
+        <v>192785.75999999998</v>
+      </c>
+      <c r="O45" s="2">
+        <f>+N45*O46</f>
+        <v>175259.7818181818</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="C47" s="60">
-        <f>+H46</f>
-        <v>247822.47193761871</v>
-      </c>
-      <c r="D47" s="124">
-        <f>+C47*(1+0.01)</f>
-        <v>250300.6966569949</v>
-      </c>
-      <c r="E47" s="118"/>
-      <c r="F47" s="153">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G47" s="154"/>
-      <c r="H47" s="124">
-        <f>+D47/F47</f>
-        <v>16686713.110466328</v>
-      </c>
-      <c r="I47" s="118"/>
-    </row>
-    <row r="48" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E48" s="160" t="s">
+      <c r="C46" s="48">
+        <f t="shared" ref="C46" si="5">+H45</f>
+        <v>713740.85845776869</v>
+      </c>
+      <c r="D46" s="103"/>
+      <c r="E46" s="104"/>
+      <c r="F46" s="153"/>
+      <c r="G46" s="154"/>
+      <c r="H46" s="103">
+        <f>+M40</f>
+        <v>12235557.573561747</v>
+      </c>
+      <c r="I46" s="104"/>
+      <c r="O46" s="2">
+        <f>1/(1+0.1)</f>
+        <v>0.90909090909090906</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E47" s="105" t="s">
         <v>181</v>
       </c>
-      <c r="F48" s="161"/>
-      <c r="G48" s="162"/>
-      <c r="H48" s="155">
-        <f>+H46+H47</f>
-        <v>16934535.582403947</v>
-      </c>
-      <c r="I48" s="156"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="166" t="s">
+      <c r="F47" s="106"/>
+      <c r="G47" s="107"/>
+      <c r="H47" s="103">
+        <f>H46+SUM(H36:I45)</f>
+        <v>17384281.530787349</v>
+      </c>
+      <c r="I47" s="104"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="101" t="s">
         <v>172</v>
       </c>
-      <c r="C51" s="166"/>
-      <c r="D51" s="166" t="s">
+      <c r="C50" s="101"/>
+      <c r="D50" s="101" t="s">
         <v>174</v>
       </c>
-      <c r="E51" s="166"/>
-      <c r="F51" s="166" t="s">
+      <c r="E50" s="101"/>
+      <c r="F50" s="101" t="s">
         <v>173</v>
       </c>
-      <c r="G51" s="166"/>
-      <c r="H51" s="166"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="164">
-        <f>+H30</f>
-        <v>9283069.4164789598</v>
-      </c>
-      <c r="C52" s="164"/>
-      <c r="D52" s="164">
-        <f>+F52-B52</f>
-        <v>7651466.1659249868</v>
-      </c>
-      <c r="E52" s="164"/>
-      <c r="F52" s="164">
-        <f>+H48</f>
-        <v>16934535.582403947</v>
-      </c>
-      <c r="G52" s="164"/>
-      <c r="H52" s="164"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="60" t="s">
+      <c r="G50" s="101"/>
+      <c r="H50" s="101"/>
+      <c r="K50" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="L50" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="M50" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="N50" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="156">
+        <f>+H29</f>
+        <v>50507215.412502095</v>
+      </c>
+      <c r="C51" s="102"/>
+      <c r="D51" s="102">
+        <f>+F51-B51</f>
+        <v>-33122933.881714746</v>
+      </c>
+      <c r="E51" s="102"/>
+      <c r="F51" s="157">
+        <f>+H47</f>
+        <v>17384281.530787349</v>
+      </c>
+      <c r="G51" s="157"/>
+      <c r="H51" s="157"/>
+      <c r="K51" s="71">
+        <f>+C36*(1+0.2)</f>
+        <v>160654.79999999999</v>
+      </c>
+      <c r="L51" s="71">
+        <f>+(1+0.1)^N51</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M51" s="71">
+        <f>+K51/L51</f>
+        <v>146049.81818181815</v>
+      </c>
+      <c r="N51" s="158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K52" s="71">
+        <f>+K51*(1+0.2)</f>
+        <v>192785.75999999998</v>
+      </c>
+      <c r="L52" s="71">
+        <f>+(1+0.1)^N52</f>
+        <v>1.2100000000000002</v>
+      </c>
+      <c r="M52" s="71">
+        <f t="shared" ref="M52:M60" si="6">+K52/L52</f>
+        <v>159327.07438016526</v>
+      </c>
+      <c r="N52" s="158">
+        <f>+N51+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C54" s="60" t="s">
+      <c r="C53" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="D54" s="60" t="s">
+      <c r="D53" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="E54" s="60"/>
-      <c r="F54" s="163" t="s">
+      <c r="E53" s="60"/>
+      <c r="F53" s="99" t="s">
         <v>177</v>
       </c>
-      <c r="G54" s="163"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G53" s="99"/>
+      <c r="K53" s="71">
+        <f>+K52*(1+0.2)</f>
+        <v>231342.91199999998</v>
+      </c>
+      <c r="L53" s="71">
+        <f>+(1+0.1)^N53</f>
+        <v>1.3310000000000004</v>
+      </c>
+      <c r="M53" s="71">
+        <f t="shared" si="6"/>
+        <v>173811.35386927114</v>
+      </c>
+      <c r="N53" s="158">
+        <f>+N52+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="60" t="str">
+        <f>+B50</f>
+        <v>Bird In Hand</v>
+      </c>
+      <c r="C54" s="60">
+        <f>+B51</f>
+        <v>50507215.412502095</v>
+      </c>
+      <c r="D54" s="99">
+        <v>25835.789409404999</v>
+      </c>
+      <c r="E54" s="99"/>
+      <c r="F54" s="99">
+        <f>+C54/D54</f>
+        <v>1954.9321529194676</v>
+      </c>
+      <c r="G54" s="99"/>
+      <c r="K54" s="71">
+        <f>+K53*(1+0.2)</f>
+        <v>277611.49439999997</v>
+      </c>
+      <c r="L54" s="71">
+        <f>+(1+0.1)^N54</f>
+        <v>1.4641000000000004</v>
+      </c>
+      <c r="M54" s="71">
+        <f t="shared" si="6"/>
+        <v>189612.3860392049</v>
+      </c>
+      <c r="N54" s="158">
+        <f>+N53+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="60" t="str">
-        <f>+B51</f>
-        <v>Bird In Hand</v>
+        <f>+D50</f>
+        <v>Margin of Safety</v>
       </c>
       <c r="C55" s="60">
-        <f>+B52</f>
-        <v>9283069.4164789598</v>
-      </c>
-      <c r="D55" s="163">
+        <f>+D51</f>
+        <v>-33122933.881714746</v>
+      </c>
+      <c r="D55" s="99">
         <v>25835.789409404999</v>
       </c>
-      <c r="E55" s="163"/>
-      <c r="F55" s="163">
+      <c r="E55" s="99"/>
+      <c r="F55" s="99">
         <f>+C55/D55</f>
-        <v>359.31046152201742</v>
-      </c>
-      <c r="G55" s="163"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-1282.0561956452939</v>
+      </c>
+      <c r="G55" s="99"/>
+      <c r="K55" s="71">
+        <f>+K54*(1+0.2)</f>
+        <v>333133.79327999993</v>
+      </c>
+      <c r="L55" s="71">
+        <f>+(1+0.1)^N55</f>
+        <v>1.6105100000000006</v>
+      </c>
+      <c r="M55" s="71">
+        <f t="shared" si="6"/>
+        <v>206849.87567913259</v>
+      </c>
+      <c r="N55" s="158">
+        <f>+N54+1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="60" t="str">
-        <f>+D51</f>
-        <v>Margin of Safety</v>
+        <f>+F50</f>
+        <v>Future Bird in Bush</v>
       </c>
       <c r="C56" s="60">
-        <f>+D52</f>
-        <v>7651466.1659249868</v>
-      </c>
-      <c r="D56" s="163">
+        <f>+F51</f>
+        <v>17384281.530787349</v>
+      </c>
+      <c r="D56" s="99">
         <v>25835.789409404999</v>
       </c>
-      <c r="E56" s="163"/>
-      <c r="F56" s="163">
+      <c r="E56" s="99"/>
+      <c r="F56" s="99">
         <f>+C56/D56</f>
-        <v>296.15763020345815</v>
-      </c>
-      <c r="G56" s="163"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="60" t="str">
-        <f>+F51</f>
-        <v>Future Bird in Bush</v>
-      </c>
-      <c r="C57" s="60">
-        <f>+F52</f>
-        <v>16934535.582403947</v>
-      </c>
-      <c r="D57" s="163">
-        <v>25835.789409404999</v>
-      </c>
-      <c r="E57" s="163"/>
-      <c r="F57" s="163">
-        <f>+C57/D57</f>
-        <v>655.46809172547557</v>
-      </c>
-      <c r="G57" s="163"/>
-    </row>
-    <row r="58" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="157" t="s">
+        <v>672.87595727417374</v>
+      </c>
+      <c r="G56" s="99"/>
+      <c r="K56" s="71">
+        <f>+K55*(1+0.2)</f>
+        <v>399760.55193599989</v>
+      </c>
+      <c r="L56" s="71">
+        <f>+(1+0.1)^N56</f>
+        <v>1.7715610000000008</v>
+      </c>
+      <c r="M56" s="71">
+        <f t="shared" si="6"/>
+        <v>225654.40983178094</v>
+      </c>
+      <c r="N56" s="158">
+        <f>+N55+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="100" t="s">
         <v>179</v>
       </c>
-      <c r="D58" s="157"/>
-      <c r="E58" s="157"/>
-      <c r="F58" s="165">
-        <f>+F56/F55</f>
-        <v>0.82423881828809631</v>
-      </c>
-      <c r="G58" s="165"/>
+      <c r="D57" s="100"/>
+      <c r="E57" s="100"/>
+      <c r="F57" s="98">
+        <f>+F55/F54</f>
+        <v>-0.65580597962476062</v>
+      </c>
+      <c r="G57" s="98"/>
+      <c r="K57" s="71">
+        <f>+K56*(1+0.2)</f>
+        <v>479712.66232319985</v>
+      </c>
+      <c r="L57" s="71">
+        <f>+(1+0.1)^N57</f>
+        <v>1.9487171000000012</v>
+      </c>
+      <c r="M57" s="71">
+        <f t="shared" si="6"/>
+        <v>246168.44708921554</v>
+      </c>
+      <c r="N57" s="158">
+        <f>+N56+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K58" s="71">
+        <f>+K57*(1+0.2)</f>
+        <v>575655.19478783978</v>
+      </c>
+      <c r="L58" s="71">
+        <f>+(1+0.1)^N58</f>
+        <v>2.1435888100000011</v>
+      </c>
+      <c r="M58" s="71">
+        <f t="shared" si="6"/>
+        <v>268547.39682459878</v>
+      </c>
+      <c r="N58" s="158">
+        <f>+N57+1</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="145" t="s">
+        <v>185</v>
+      </c>
+      <c r="C59" s="145"/>
+      <c r="D59" s="145"/>
+      <c r="K59" s="71">
+        <f>+K58*(1+0.2)</f>
+        <v>690786.23374540766</v>
+      </c>
+      <c r="L59" s="71">
+        <f>+(1+0.1)^N59</f>
+        <v>2.3579476910000015</v>
+      </c>
+      <c r="M59" s="71">
+        <f t="shared" si="6"/>
+        <v>292960.79653592588</v>
+      </c>
+      <c r="N59" s="158">
+        <f>+N58+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K60" s="71">
+        <f>+K59*(1+0.2)</f>
+        <v>828943.48049448919</v>
+      </c>
+      <c r="L60" s="71">
+        <f>+(1+0.1)^N60</f>
+        <v>2.5937424601000019</v>
+      </c>
+      <c r="M60" s="71">
+        <f t="shared" si="6"/>
+        <v>319593.59622101003</v>
+      </c>
+      <c r="N60" s="158">
+        <f>+N59+1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" s="48">
+        <f>+F56</f>
+        <v>672.87595727417374</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="C62" s="48">
+        <f>+Main!C5</f>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="C63" s="77">
+        <f>+(C61-C62)/C62</f>
+        <v>0.75228113873482749</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="100">
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="B32:I34"/>
+  <mergeCells count="101">
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="B13:J15"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B5:J6"/>
+    <mergeCell ref="D9:J10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B31:I33"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="H36:I36"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
     <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B14:J16"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B5:J6"/>
-    <mergeCell ref="D9:J10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="C57:E57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7483,7 +7799,7 @@
   <dimension ref="B2:U8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:U5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7492,134 +7808,134 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="152" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="85"/>
-      <c r="U2" s="85"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="152"/>
+      <c r="P2" s="152"/>
+      <c r="Q2" s="152"/>
+      <c r="R2" s="152"/>
+      <c r="S2" s="152"/>
+      <c r="T2" s="152"/>
+      <c r="U2" s="152"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="152"/>
+      <c r="N3" s="152"/>
+      <c r="O3" s="152"/>
+      <c r="P3" s="152"/>
+      <c r="Q3" s="152"/>
+      <c r="R3" s="152"/>
+      <c r="S3" s="152"/>
+      <c r="T3" s="152"/>
+      <c r="U3" s="152"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
-      <c r="T4" s="85"/>
-      <c r="U4" s="85"/>
+      <c r="B4" s="152"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
+      <c r="K4" s="152"/>
+      <c r="L4" s="152"/>
+      <c r="M4" s="152"/>
+      <c r="N4" s="152"/>
+      <c r="O4" s="152"/>
+      <c r="P4" s="152"/>
+      <c r="Q4" s="152"/>
+      <c r="R4" s="152"/>
+      <c r="S4" s="152"/>
+      <c r="T4" s="152"/>
+      <c r="U4" s="152"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="85"/>
-      <c r="T5" s="85"/>
-      <c r="U5" s="85"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="152"/>
+      <c r="K5" s="152"/>
+      <c r="L5" s="152"/>
+      <c r="M5" s="152"/>
+      <c r="N5" s="152"/>
+      <c r="O5" s="152"/>
+      <c r="P5" s="152"/>
+      <c r="Q5" s="152"/>
+      <c r="R5" s="152"/>
+      <c r="S5" s="152"/>
+      <c r="T5" s="152"/>
+      <c r="U5" s="152"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84"/>
-      <c r="S6" s="84"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
     </row>
     <row r="7" spans="2:21" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="84"/>
-      <c r="S7" s="84"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="69"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B8" s="68"/>
